--- a/login_senha.xlsx
+++ b/login_senha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Área de Trabalho\Projeto Python\Painel SGE\Painel 1 2 3 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A464AE3E-03AB-4A40-95ED-A324A231A390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E6C41-9067-4289-8E94-4AF03355107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="180">
   <si>
     <t>CPF</t>
   </si>
@@ -557,13 +557,19 @@
   </si>
   <si>
     <t>123.456.789-10</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>alexandre_royal@seduc.togov.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -572,6 +578,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -591,17 +603,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,9 +633,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -658,7 +673,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -764,7 +779,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -906,7 +921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -914,20 +929,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -940,8 +956,11 @@
       <c r="D1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -952,7 +971,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -963,7 +982,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -974,7 +993,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -985,7 +1004,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -996,7 +1015,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +1026,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1037,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1048,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1059,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1070,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1081,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1092,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1084,7 +1103,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1095,7 +1114,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1106,7 +1125,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1117,7 +1136,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1128,7 +1147,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1139,7 +1158,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1150,7 +1169,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1161,7 +1180,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1171,8 +1190,11 @@
       <c r="D22">
         <v>123456</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1183,7 +1205,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1205,7 +1227,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1238,7 +1260,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1249,7 +1271,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1260,7 +1282,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1271,7 +1293,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1282,7 +1304,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1304,7 +1326,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -1315,7 +1337,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -1348,7 +1370,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1359,7 +1381,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1370,7 +1392,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1381,7 +1403,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -1392,7 +1414,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1403,7 +1425,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -1414,7 +1436,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -1425,7 +1447,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -1436,7 +1458,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -1447,7 +1469,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -1458,7 +1480,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -1480,7 +1502,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -1491,7 +1513,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -1513,7 +1535,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -1524,7 +1546,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -1535,7 +1557,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -1546,7 +1568,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -1557,7 +1579,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -1568,7 +1590,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -1579,7 +1601,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -1590,7 +1612,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -1601,7 +1623,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1612,7 +1634,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +1645,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -1634,7 +1656,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -1645,7 +1667,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -1656,7 +1678,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -1667,7 +1689,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -1678,7 +1700,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1711,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -1700,7 +1722,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1733,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -1722,7 +1744,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -1733,7 +1755,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1744,7 +1766,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1755,7 +1777,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1788,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1799,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -1788,7 +1810,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -1799,7 +1821,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -1810,7 +1832,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1821,7 +1843,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -1832,7 +1854,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>55</v>
       </c>
@@ -1843,7 +1865,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -1854,7 +1876,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -1865,7 +1887,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>35</v>
       </c>
@@ -1876,7 +1898,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -1887,7 +1909,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>57</v>
       </c>
@@ -1898,7 +1920,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -1909,7 +1931,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -1920,7 +1942,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -1931,7 +1953,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -1942,7 +1964,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -1953,7 +1975,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -1964,7 +1986,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -1975,7 +1997,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -1987,7 +2009,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -1998,7 +2020,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>176</v>
       </c>
@@ -2009,7 +2031,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -2020,7 +2042,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>119</v>
       </c>
@@ -2031,7 +2053,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>120</v>
       </c>
@@ -2042,7 +2064,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>121</v>
       </c>
@@ -2053,7 +2075,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>122</v>
       </c>
@@ -2064,7 +2086,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>123</v>
       </c>
@@ -2075,7 +2097,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>124</v>
       </c>
@@ -2086,7 +2108,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>125</v>
       </c>
@@ -2097,7 +2119,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>126</v>
       </c>
@@ -2108,7 +2130,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>127</v>
       </c>
@@ -2119,7 +2141,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>128</v>
       </c>
@@ -2130,7 +2152,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>129</v>
       </c>
@@ -2141,7 +2163,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>130</v>
       </c>
@@ -2152,7 +2174,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>131</v>
       </c>
@@ -2163,7 +2185,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>132</v>
       </c>
@@ -2174,7 +2196,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>133</v>
       </c>
@@ -2185,7 +2207,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>134</v>
       </c>
@@ -2196,7 +2218,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>135</v>
       </c>
@@ -2207,7 +2229,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>175</v>
       </c>
@@ -2218,7 +2240,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>136</v>
       </c>
@@ -2229,7 +2251,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>137</v>
       </c>
@@ -2240,7 +2262,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>138</v>
       </c>
@@ -2251,7 +2273,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>139</v>
       </c>
@@ -2262,7 +2284,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>140</v>
       </c>
@@ -2273,7 +2295,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>141</v>
       </c>
@@ -2284,7 +2306,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>142</v>
       </c>
@@ -2295,7 +2317,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>143</v>
       </c>
@@ -2306,7 +2328,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>144</v>
       </c>
@@ -2317,7 +2339,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>145</v>
       </c>
@@ -2328,7 +2350,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>146</v>
       </c>
@@ -2339,7 +2361,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>147</v>
       </c>
@@ -2350,7 +2372,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -2361,7 +2383,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -2372,7 +2394,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>150</v>
       </c>
@@ -2383,7 +2405,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>151</v>
       </c>
@@ -2394,7 +2416,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>152</v>
       </c>
@@ -2405,7 +2427,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>153</v>
       </c>
@@ -2416,7 +2438,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>171</v>
       </c>
@@ -2427,7 +2449,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>154</v>
       </c>
@@ -2438,7 +2460,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>155</v>
       </c>
@@ -2449,7 +2471,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>156</v>
       </c>
@@ -2460,7 +2482,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>157</v>
       </c>
@@ -2471,7 +2493,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>158</v>
       </c>
@@ -2482,7 +2504,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>159</v>
       </c>
@@ -2493,7 +2515,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>160</v>
       </c>
@@ -2504,7 +2526,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>161</v>
       </c>
@@ -2515,7 +2537,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>162</v>
       </c>
@@ -2526,7 +2548,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>163</v>
       </c>
@@ -2537,7 +2559,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>164</v>
       </c>
@@ -2548,7 +2570,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>165</v>
       </c>
@@ -2559,7 +2581,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>166</v>
       </c>
@@ -2570,7 +2592,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>167</v>
       </c>
@@ -2581,7 +2603,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>168</v>
       </c>
@@ -2592,7 +2614,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>169</v>
       </c>
@@ -2604,7 +2626,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{AEE0C3B0-1BF3-48EB-9EA3-5A746517858E}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/login_senha.xlsx
+++ b/login_senha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Área de Trabalho\Projeto Python\Painel SGE\Painel 1 2 3 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E6C41-9067-4289-8E94-4AF03355107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ACD4D1-18E7-409B-BB35-290FACFE9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/login_senha.xlsx
+++ b/login_senha.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Área de Trabalho\Projeto Python\Painel SGE\Painel 1 2 3 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0bf22f0b01d7fe6/Área de Trabalho/Projeto Python/Painel SGE/Painel 1 2 3 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ACD4D1-18E7-409B-BB35-290FACFE9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{35ACD4D1-18E7-409B-BB35-290FACFE9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2E9C5A6-0C9C-4305-8392-15EF8F1C25AA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>alexandre_royal@seduc.togov.br</t>
+    <t>alexandre_royal@seduc.to.gov.br</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
   <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/login_senha.xlsx
+++ b/login_senha.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0bf22f0b01d7fe6/Área de Trabalho/Projeto Python/Painel SGE/Painel 1 2 3 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Área de Trabalho\Projeto Python\Painel SGE\Painel 1 2 3 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{35ACD4D1-18E7-409B-BB35-290FACFE9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2E9C5A6-0C9C-4305-8392-15EF8F1C25AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6EC1F9-A85C-4724-A7F7-CB00AE7A84EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/login_senha.xlsx
+++ b/login_senha.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Área de Trabalho\Projeto Python\Painel SGE\Painel 1 2 3 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0bf22f0b01d7fe6/Área de Trabalho/Projeto Python/Painel SGE/Painel 1 2 3 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6EC1F9-A85C-4724-A7F7-CB00AE7A84EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4A6EC1F9-A85C-4724-A7F7-CB00AE7A84EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E8D3FA-8E00-4980-BACF-BDDAD0C847A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="178">
   <si>
     <t>CPF</t>
   </si>
@@ -551,12 +551,6 @@
   </si>
   <si>
     <t>ESCOLA ESTADUAL PROFESSORA DIVA GOMES DA SILVEIRA COSTA</t>
-  </si>
-  <si>
-    <t>FUNDAÇÃO GETULIO VARGAS</t>
-  </si>
-  <si>
-    <t>123.456.789-10</t>
   </si>
   <si>
     <t>EMAIL</t>
@@ -929,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +951,7 @@
         <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1191,7 +1185,7 @@
         <v>123456</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2022,21 +2016,21 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>176</v>
-      </c>
-      <c r="B98" t="s">
-        <v>177</v>
+        <v>118</v>
+      </c>
+      <c r="C98">
+        <v>17021502</v>
       </c>
       <c r="D98">
         <v>123456</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>118</v>
+      <c r="A99" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C99">
-        <v>17021502</v>
+        <v>17021685</v>
       </c>
       <c r="D99">
         <v>123456</v>
@@ -2044,10 +2038,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C100">
-        <v>17021685</v>
+        <v>17021553</v>
       </c>
       <c r="D100">
         <v>123456</v>
@@ -2055,10 +2049,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C101">
-        <v>17021553</v>
+        <v>17052351</v>
       </c>
       <c r="D101">
         <v>123456</v>
@@ -2066,10 +2060,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C102">
-        <v>17052351</v>
+        <v>17021243</v>
       </c>
       <c r="D102">
         <v>123456</v>
@@ -2077,10 +2071,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C103">
-        <v>17021243</v>
+        <v>17023181</v>
       </c>
       <c r="D103">
         <v>123456</v>
@@ -2088,10 +2082,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C104">
-        <v>17023181</v>
+        <v>17048826</v>
       </c>
       <c r="D104">
         <v>123456</v>
@@ -2099,10 +2093,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C105">
-        <v>17048826</v>
+        <v>17020336</v>
       </c>
       <c r="D105">
         <v>123456</v>
@@ -2110,10 +2104,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C106">
-        <v>17020336</v>
+        <v>17018382</v>
       </c>
       <c r="D106">
         <v>123456</v>
@@ -2121,10 +2115,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C107">
-        <v>17018382</v>
+        <v>17021251</v>
       </c>
       <c r="D107">
         <v>123456</v>
@@ -2132,10 +2126,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C108">
-        <v>17021251</v>
+        <v>17020590</v>
       </c>
       <c r="D108">
         <v>123456</v>
@@ -2143,10 +2137,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C109">
-        <v>17020590</v>
+        <v>17052963</v>
       </c>
       <c r="D109">
         <v>123456</v>
@@ -2154,10 +2148,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C110">
-        <v>17052963</v>
+        <v>17022819</v>
       </c>
       <c r="D110">
         <v>123456</v>
@@ -2165,10 +2159,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C111">
-        <v>17022819</v>
+        <v>17017912</v>
       </c>
       <c r="D111">
         <v>123456</v>
@@ -2176,10 +2170,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C112">
-        <v>17017912</v>
+        <v>17055857</v>
       </c>
       <c r="D112">
         <v>123456</v>
@@ -2187,10 +2181,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C113">
-        <v>17055857</v>
+        <v>17021561</v>
       </c>
       <c r="D113">
         <v>123456</v>
@@ -2198,10 +2192,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C114">
-        <v>17021561</v>
+        <v>17017165</v>
       </c>
       <c r="D114">
         <v>123456</v>
@@ -2209,10 +2203,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C115">
-        <v>17017165</v>
+        <v>17020140</v>
       </c>
       <c r="D115">
         <v>123456</v>
@@ -2220,10 +2214,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C116">
-        <v>17020140</v>
+        <v>17023319</v>
       </c>
       <c r="D116">
         <v>123456</v>
@@ -2231,10 +2225,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="C117">
-        <v>17023319</v>
+        <v>17040051</v>
       </c>
       <c r="D117">
         <v>123456</v>
@@ -2242,10 +2236,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C118">
-        <v>17040051</v>
+        <v>17021596</v>
       </c>
       <c r="D118">
         <v>123456</v>
@@ -2253,10 +2247,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C119">
-        <v>17021596</v>
+        <v>17022320</v>
       </c>
       <c r="D119">
         <v>123456</v>
@@ -2264,10 +2258,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C120">
-        <v>17022320</v>
+        <v>17036917</v>
       </c>
       <c r="D120">
         <v>123456</v>
@@ -2275,10 +2269,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C121">
-        <v>17036917</v>
+        <v>17021146</v>
       </c>
       <c r="D121">
         <v>123456</v>
@@ -2286,10 +2280,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C122">
-        <v>17021146</v>
+        <v>17018390</v>
       </c>
       <c r="D122">
         <v>123456</v>
@@ -2297,10 +2291,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C123">
-        <v>17018390</v>
+        <v>17020581</v>
       </c>
       <c r="D123">
         <v>123456</v>
@@ -2308,10 +2302,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C124">
-        <v>17020581</v>
+        <v>17022312</v>
       </c>
       <c r="D124">
         <v>123456</v>
@@ -2319,10 +2313,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C125">
-        <v>17022312</v>
+        <v>17021774</v>
       </c>
       <c r="D125">
         <v>123456</v>
@@ -2330,10 +2324,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C126">
-        <v>17021774</v>
+        <v>17022339</v>
       </c>
       <c r="D126">
         <v>123456</v>
@@ -2341,10 +2335,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C127">
-        <v>17022339</v>
+        <v>17040035</v>
       </c>
       <c r="D127">
         <v>123456</v>
@@ -2352,10 +2346,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C128">
-        <v>17040035</v>
+        <v>17022860</v>
       </c>
       <c r="D128">
         <v>123456</v>
@@ -2363,10 +2357,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C129">
-        <v>17022860</v>
+        <v>17020611</v>
       </c>
       <c r="D129">
         <v>123456</v>
@@ -2374,10 +2368,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C130">
-        <v>17020611</v>
+        <v>17021588</v>
       </c>
       <c r="D130">
         <v>123456</v>
@@ -2385,10 +2379,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C131">
-        <v>17021588</v>
+        <v>17038359</v>
       </c>
       <c r="D131">
         <v>123456</v>
@@ -2396,10 +2390,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C132">
-        <v>17038359</v>
+        <v>17018404</v>
       </c>
       <c r="D132">
         <v>123456</v>
@@ -2407,10 +2401,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C133">
-        <v>17018404</v>
+        <v>17021731</v>
       </c>
       <c r="D133">
         <v>123456</v>
@@ -2418,10 +2412,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C134">
-        <v>17021731</v>
+        <v>17020360</v>
       </c>
       <c r="D134">
         <v>123456</v>
@@ -2429,10 +2423,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C135">
-        <v>17020360</v>
+        <v>17040841</v>
       </c>
       <c r="D135">
         <v>123456</v>
@@ -2440,10 +2434,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C136">
-        <v>17040841</v>
+        <v>17020158</v>
       </c>
       <c r="D136">
         <v>123456</v>
@@ -2451,10 +2445,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C137">
-        <v>17020158</v>
+        <v>17053315</v>
       </c>
       <c r="D137">
         <v>123456</v>
@@ -2462,10 +2456,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C138">
-        <v>17053315</v>
+        <v>17021600</v>
       </c>
       <c r="D138">
         <v>123456</v>
@@ -2473,10 +2467,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C139">
-        <v>17021600</v>
+        <v>17017203</v>
       </c>
       <c r="D139">
         <v>123456</v>
@@ -2484,10 +2478,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C140">
-        <v>17017203</v>
+        <v>17021707</v>
       </c>
       <c r="D140">
         <v>123456</v>
@@ -2495,10 +2489,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C141">
-        <v>17021707</v>
+        <v>17021804</v>
       </c>
       <c r="D141">
         <v>123456</v>
@@ -2506,10 +2500,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C142">
-        <v>17021804</v>
+        <v>17106800</v>
       </c>
       <c r="D142">
         <v>123456</v>
@@ -2517,10 +2511,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C143">
-        <v>17106800</v>
+        <v>17050278</v>
       </c>
       <c r="D143">
         <v>123456</v>
@@ -2528,10 +2522,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C144">
-        <v>17050278</v>
+        <v>17043069</v>
       </c>
       <c r="D144">
         <v>123456</v>
@@ -2539,10 +2533,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C145">
-        <v>17043069</v>
+        <v>17018820</v>
       </c>
       <c r="D145">
         <v>123456</v>
@@ -2550,10 +2544,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C146">
-        <v>17018820</v>
+        <v>17043026</v>
       </c>
       <c r="D146">
         <v>123456</v>
@@ -2561,10 +2555,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C147">
-        <v>17043026</v>
+        <v>17039150</v>
       </c>
       <c r="D147">
         <v>123456</v>
@@ -2572,10 +2566,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C148">
-        <v>17039150</v>
+        <v>17052823</v>
       </c>
       <c r="D148">
         <v>123456</v>
@@ -2583,10 +2577,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C149">
-        <v>17052823</v>
+        <v>17051746</v>
       </c>
       <c r="D149">
         <v>123456</v>
@@ -2594,10 +2588,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C150">
-        <v>17051746</v>
+        <v>17049253</v>
       </c>
       <c r="D150">
         <v>123456</v>
@@ -2605,23 +2599,12 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C151">
-        <v>17049253</v>
+        <v>17107806</v>
       </c>
       <c r="D151">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C152">
-        <v>17107806</v>
-      </c>
-      <c r="D152">
         <v>123456</v>
       </c>
     </row>

--- a/login_senha.xlsx
+++ b/login_senha.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0bf22f0b01d7fe6/Área de Trabalho/Projeto Python/Painel SGE/Painel 1 2 3 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Área de Trabalho\Projeto Python\Painel SGE\Painel 1 2 3 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4A6EC1F9-A85C-4724-A7F7-CB00AE7A84EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E8D3FA-8E00-4980-BACF-BDDAD0C847A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8798D671-E798-4ABF-823C-27E61BC2478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="176">
   <si>
     <t>CPF</t>
   </si>
@@ -370,13 +370,7 @@
     <t>SENHA</t>
   </si>
   <si>
-    <t>ALEX RILIE MOREIRA RODRIGUES</t>
-  </si>
-  <si>
     <t>MARCIA PONCE</t>
-  </si>
-  <si>
-    <t>899.900.642-53</t>
   </si>
   <si>
     <t>CENTRO DE ENSINO MEDIO ARY RIBEIRO VALADAO FILHO</t>
@@ -601,11 +595,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -923,17 +914,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -945,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
         <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -961,8 +952,8 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>123456</v>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -972,19 +963,19 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>123456</v>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4">
-        <v>123456</v>
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -994,8 +985,8 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>123456</v>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1005,8 +996,8 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>123456</v>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1016,8 +1007,8 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>123456</v>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1027,8 +1018,8 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>123456</v>
+      <c r="D8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1038,8 +1029,8 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>123456</v>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1049,8 +1040,8 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
-        <v>123456</v>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1060,8 +1051,8 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>123456</v>
+      <c r="D11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1071,8 +1062,8 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
-        <v>123456</v>
+      <c r="D12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1082,8 +1073,8 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="D13">
-        <v>123456</v>
+      <c r="D13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1093,8 +1084,8 @@
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
-        <v>123456</v>
+      <c r="D14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1104,8 +1095,8 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="D15">
-        <v>123456</v>
+      <c r="D15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1115,8 +1106,8 @@
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="D16">
-        <v>123456</v>
+      <c r="D16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1126,8 +1117,8 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="D17">
-        <v>123456</v>
+      <c r="D17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1137,8 +1128,8 @@
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="D18">
-        <v>123456</v>
+      <c r="D18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1148,8 +1139,8 @@
       <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="D19">
-        <v>123456</v>
+      <c r="D19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1159,8 +1150,8 @@
       <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="D20">
-        <v>123456</v>
+      <c r="D20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1170,8 +1161,8 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="D21">
-        <v>123456</v>
+      <c r="D21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1181,11 +1172,11 @@
       <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="D22">
-        <v>123456</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>177</v>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1195,8 +1186,8 @@
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="D23">
-        <v>123456</v>
+      <c r="D23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1206,8 +1197,8 @@
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="D24">
-        <v>123456</v>
+      <c r="D24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1217,8 +1208,8 @@
       <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="D25">
-        <v>123456</v>
+      <c r="D25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1228,8 +1219,8 @@
       <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="D26">
-        <v>123456</v>
+      <c r="D26" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1239,8 +1230,8 @@
       <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="D27">
-        <v>123456</v>
+      <c r="D27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1250,8 +1241,8 @@
       <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="D28">
-        <v>123456</v>
+      <c r="D28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1261,8 +1252,8 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="D29">
-        <v>123456</v>
+      <c r="D29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1272,8 +1263,8 @@
       <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="D30">
-        <v>123456</v>
+      <c r="D30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1283,8 +1274,8 @@
       <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="D31">
-        <v>123456</v>
+      <c r="D31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1294,8 +1285,8 @@
       <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="D32">
-        <v>123456</v>
+      <c r="D32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1305,8 +1296,8 @@
       <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="D33">
-        <v>123456</v>
+      <c r="D33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1316,8 +1307,8 @@
       <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="D34">
-        <v>123456</v>
+      <c r="D34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1327,8 +1318,8 @@
       <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="D35">
-        <v>123456</v>
+      <c r="D35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1338,8 +1329,8 @@
       <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="D36">
-        <v>123456</v>
+      <c r="D36" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,8 +1340,8 @@
       <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="D37">
-        <v>123456</v>
+      <c r="D37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1360,8 +1351,8 @@
       <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="D38">
-        <v>123456</v>
+      <c r="D38" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1371,8 +1362,8 @@
       <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="D39">
-        <v>123456</v>
+      <c r="D39" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,8 +1373,8 @@
       <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="D40">
-        <v>123456</v>
+      <c r="D40" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1393,8 +1384,8 @@
       <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="D41">
-        <v>123456</v>
+      <c r="D41" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,8 +1395,8 @@
       <c r="B42" t="s">
         <v>80</v>
       </c>
-      <c r="D42">
-        <v>123456</v>
+      <c r="D42" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1415,8 +1406,8 @@
       <c r="B43" t="s">
         <v>82</v>
       </c>
-      <c r="D43">
-        <v>123456</v>
+      <c r="D43" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1426,8 +1417,8 @@
       <c r="B44" t="s">
         <v>60</v>
       </c>
-      <c r="D44">
-        <v>123456</v>
+      <c r="D44" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,8 +1428,8 @@
       <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="D45">
-        <v>123456</v>
+      <c r="D45" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1448,8 +1439,8 @@
       <c r="B46" t="s">
         <v>62</v>
       </c>
-      <c r="D46">
-        <v>123456</v>
+      <c r="D46" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1459,8 +1450,8 @@
       <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="D47">
-        <v>123456</v>
+      <c r="D47" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,8 +1461,8 @@
       <c r="B48" t="s">
         <v>88</v>
       </c>
-      <c r="D48">
-        <v>123456</v>
+      <c r="D48" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,8 +1472,8 @@
       <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="D49">
-        <v>123456</v>
+      <c r="D49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,8 +1483,8 @@
       <c r="B50" t="s">
         <v>40</v>
       </c>
-      <c r="D50">
-        <v>123456</v>
+      <c r="D50" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,8 +1494,8 @@
       <c r="B51" t="s">
         <v>64</v>
       </c>
-      <c r="D51">
-        <v>123456</v>
+      <c r="D51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,8 +1505,8 @@
       <c r="B52" t="s">
         <v>90</v>
       </c>
-      <c r="D52">
-        <v>123456</v>
+      <c r="D52" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1525,8 +1516,8 @@
       <c r="B53" t="s">
         <v>92</v>
       </c>
-      <c r="D53">
-        <v>123456</v>
+      <c r="D53" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,8 +1527,8 @@
       <c r="B54" t="s">
         <v>94</v>
       </c>
-      <c r="D54">
-        <v>123456</v>
+      <c r="D54" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1547,8 +1538,8 @@
       <c r="B55" t="s">
         <v>96</v>
       </c>
-      <c r="D55">
-        <v>123456</v>
+      <c r="D55" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1558,8 +1549,8 @@
       <c r="B56" t="s">
         <v>66</v>
       </c>
-      <c r="D56">
-        <v>123456</v>
+      <c r="D56" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1569,8 +1560,8 @@
       <c r="B57" t="s">
         <v>50</v>
       </c>
-      <c r="D57">
-        <v>123456</v>
+      <c r="D57" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1580,8 +1571,8 @@
       <c r="B58" t="s">
         <v>98</v>
       </c>
-      <c r="D58">
-        <v>123456</v>
+      <c r="D58" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,8 +1582,8 @@
       <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="D59">
-        <v>123456</v>
+      <c r="D59" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1602,8 +1593,8 @@
       <c r="B60" t="s">
         <v>70</v>
       </c>
-      <c r="D60">
-        <v>123456</v>
+      <c r="D60" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1613,8 +1604,8 @@
       <c r="B61" t="s">
         <v>72</v>
       </c>
-      <c r="D61">
-        <v>123456</v>
+      <c r="D61" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,8 +1615,8 @@
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="D62">
-        <v>123456</v>
+      <c r="D62" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,8 +1626,8 @@
       <c r="B63" t="s">
         <v>2</v>
       </c>
-      <c r="D63">
-        <v>123456</v>
+      <c r="D63" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,8 +1637,8 @@
       <c r="B64" t="s">
         <v>52</v>
       </c>
-      <c r="D64">
-        <v>123456</v>
+      <c r="D64" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,8 +1648,8 @@
       <c r="B65" t="s">
         <v>74</v>
       </c>
-      <c r="D65">
-        <v>123456</v>
+      <c r="D65" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1668,8 +1659,8 @@
       <c r="B66" t="s">
         <v>26</v>
       </c>
-      <c r="D66">
-        <v>123456</v>
+      <c r="D66" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1679,8 +1670,8 @@
       <c r="B67" t="s">
         <v>100</v>
       </c>
-      <c r="D67">
-        <v>123456</v>
+      <c r="D67" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1690,8 +1681,8 @@
       <c r="B68" t="s">
         <v>102</v>
       </c>
-      <c r="D68">
-        <v>123456</v>
+      <c r="D68" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1701,8 +1692,8 @@
       <c r="B69" t="s">
         <v>8</v>
       </c>
-      <c r="D69">
-        <v>123456</v>
+      <c r="D69" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1712,8 +1703,8 @@
       <c r="B70" t="s">
         <v>18</v>
       </c>
-      <c r="D70">
-        <v>123456</v>
+      <c r="D70" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1723,8 +1714,8 @@
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="D71">
-        <v>123456</v>
+      <c r="D71" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1734,8 +1725,8 @@
       <c r="B72" t="s">
         <v>42</v>
       </c>
-      <c r="D72">
-        <v>123456</v>
+      <c r="D72" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1745,8 +1736,8 @@
       <c r="B73" t="s">
         <v>12</v>
       </c>
-      <c r="D73">
-        <v>123456</v>
+      <c r="D73" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1756,8 +1747,8 @@
       <c r="B74" t="s">
         <v>78</v>
       </c>
-      <c r="D74">
-        <v>123456</v>
+      <c r="D74" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1767,8 +1758,8 @@
       <c r="B75" t="s">
         <v>20</v>
       </c>
-      <c r="D75">
-        <v>123456</v>
+      <c r="D75" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1778,8 +1769,8 @@
       <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="D76">
-        <v>123456</v>
+      <c r="D76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1789,8 +1780,8 @@
       <c r="B77" t="s">
         <v>14</v>
       </c>
-      <c r="D77">
-        <v>123456</v>
+      <c r="D77" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1800,8 +1791,8 @@
       <c r="B78" t="s">
         <v>16</v>
       </c>
-      <c r="D78">
-        <v>123456</v>
+      <c r="D78" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,8 +1802,8 @@
       <c r="B79" t="s">
         <v>30</v>
       </c>
-      <c r="D79">
-        <v>123456</v>
+      <c r="D79" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1822,8 +1813,8 @@
       <c r="B80" t="s">
         <v>44</v>
       </c>
-      <c r="D80">
-        <v>123456</v>
+      <c r="D80" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1833,8 +1824,8 @@
       <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="D81">
-        <v>123456</v>
+      <c r="D81" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1844,8 +1835,8 @@
       <c r="B82" t="s">
         <v>32</v>
       </c>
-      <c r="D82">
-        <v>123456</v>
+      <c r="D82" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1855,8 +1846,8 @@
       <c r="B83" t="s">
         <v>54</v>
       </c>
-      <c r="D83">
-        <v>123456</v>
+      <c r="D83" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1866,8 +1857,8 @@
       <c r="B84" t="s">
         <v>22</v>
       </c>
-      <c r="D84">
-        <v>123456</v>
+      <c r="D84" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1877,8 +1868,8 @@
       <c r="B85" t="s">
         <v>34</v>
       </c>
-      <c r="D85">
-        <v>123456</v>
+      <c r="D85" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1888,8 +1879,8 @@
       <c r="B86" t="s">
         <v>34</v>
       </c>
-      <c r="D86">
-        <v>123456</v>
+      <c r="D86" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1899,8 +1890,8 @@
       <c r="B87" t="s">
         <v>104</v>
       </c>
-      <c r="D87">
-        <v>123456</v>
+      <c r="D87" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,8 +1901,8 @@
       <c r="B88" t="s">
         <v>56</v>
       </c>
-      <c r="D88">
-        <v>123456</v>
+      <c r="D88" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1921,8 +1912,8 @@
       <c r="B89" t="s">
         <v>106</v>
       </c>
-      <c r="D89">
-        <v>123456</v>
+      <c r="D89" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1932,8 +1923,8 @@
       <c r="B90" t="s">
         <v>48</v>
       </c>
-      <c r="D90">
-        <v>123456</v>
+      <c r="D90" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1943,8 +1934,8 @@
       <c r="B91" t="s">
         <v>36</v>
       </c>
-      <c r="D91">
-        <v>123456</v>
+      <c r="D91" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1954,8 +1945,8 @@
       <c r="B92" t="s">
         <v>108</v>
       </c>
-      <c r="D92">
-        <v>123456</v>
+      <c r="D92" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1965,8 +1956,8 @@
       <c r="B93" t="s">
         <v>110</v>
       </c>
-      <c r="D93">
-        <v>123456</v>
+      <c r="D93" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1976,8 +1967,8 @@
       <c r="B94" t="s">
         <v>112</v>
       </c>
-      <c r="D94">
-        <v>123456</v>
+      <c r="D94" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1987,625 +1978,613 @@
       <c r="B95" t="s">
         <v>58</v>
       </c>
-      <c r="D95">
-        <v>123456</v>
+      <c r="D95" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96">
-        <v>123456</v>
+      <c r="B96" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
-      <c r="B97" t="s">
-        <v>174</v>
+      <c r="C97">
+        <v>17021502</v>
       </c>
       <c r="D97">
-        <v>123456</v>
+        <v>17021502</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98">
+        <v>17021685</v>
+      </c>
+      <c r="D98">
+        <v>17021685</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C98">
-        <v>17021502</v>
-      </c>
-      <c r="D98">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+      <c r="C99">
+        <v>17021553</v>
+      </c>
+      <c r="D99">
+        <v>17021553</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C99">
-        <v>17021685</v>
-      </c>
-      <c r="D99">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+      <c r="C100">
+        <v>17052351</v>
+      </c>
+      <c r="D100">
+        <v>17052351</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C100">
-        <v>17021553</v>
-      </c>
-      <c r="D100">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+      <c r="C101">
+        <v>17021243</v>
+      </c>
+      <c r="D101">
+        <v>17021243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C101">
-        <v>17052351</v>
-      </c>
-      <c r="D101">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+      <c r="C102">
+        <v>17023181</v>
+      </c>
+      <c r="D102">
+        <v>17023181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C102">
-        <v>17021243</v>
-      </c>
-      <c r="D102">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+      <c r="C103">
+        <v>17048826</v>
+      </c>
+      <c r="D103">
+        <v>17048826</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C103">
-        <v>17023181</v>
-      </c>
-      <c r="D103">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+      <c r="C104">
+        <v>17020336</v>
+      </c>
+      <c r="D104">
+        <v>17020336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C104">
-        <v>17048826</v>
-      </c>
-      <c r="D104">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+      <c r="C105">
+        <v>17018382</v>
+      </c>
+      <c r="D105">
+        <v>17018382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C105">
-        <v>17020336</v>
-      </c>
-      <c r="D105">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+      <c r="C106">
+        <v>17021251</v>
+      </c>
+      <c r="D106">
+        <v>17021251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C106">
-        <v>17018382</v>
-      </c>
-      <c r="D106">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+      <c r="C107">
+        <v>17020590</v>
+      </c>
+      <c r="D107">
+        <v>17020590</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C107">
-        <v>17021251</v>
-      </c>
-      <c r="D107">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="C108">
+        <v>17052963</v>
+      </c>
+      <c r="D108">
+        <v>17052963</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C108">
-        <v>17020590</v>
-      </c>
-      <c r="D108">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+      <c r="C109">
+        <v>17022819</v>
+      </c>
+      <c r="D109">
+        <v>17022819</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C109">
-        <v>17052963</v>
-      </c>
-      <c r="D109">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="C110">
+        <v>17017912</v>
+      </c>
+      <c r="D110">
+        <v>17017912</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C110">
-        <v>17022819</v>
-      </c>
-      <c r="D110">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="C111">
+        <v>17055857</v>
+      </c>
+      <c r="D111">
+        <v>17055857</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C111">
-        <v>17017912</v>
-      </c>
-      <c r="D111">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="C112">
+        <v>17021561</v>
+      </c>
+      <c r="D112">
+        <v>17021561</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C112">
-        <v>17055857</v>
-      </c>
-      <c r="D112">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+      <c r="C113">
+        <v>17017165</v>
+      </c>
+      <c r="D113">
+        <v>17017165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C113">
-        <v>17021561</v>
-      </c>
-      <c r="D113">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+      <c r="C114">
+        <v>17020140</v>
+      </c>
+      <c r="D114">
+        <v>17020140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115">
+        <v>17023319</v>
+      </c>
+      <c r="D115">
+        <v>17023319</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C114">
-        <v>17017165</v>
-      </c>
-      <c r="D114">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+      <c r="C116">
+        <v>17040051</v>
+      </c>
+      <c r="D116">
+        <v>17040051</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C115">
-        <v>17020140</v>
-      </c>
-      <c r="D115">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C116">
-        <v>17023319</v>
-      </c>
-      <c r="D116">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+      <c r="C117">
+        <v>17021596</v>
+      </c>
+      <c r="D117">
+        <v>17021596</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C117">
-        <v>17040051</v>
-      </c>
-      <c r="D117">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+      <c r="C118">
+        <v>17022320</v>
+      </c>
+      <c r="D118">
+        <v>17022320</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C118">
-        <v>17021596</v>
-      </c>
-      <c r="D118">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="C119">
+        <v>17036917</v>
+      </c>
+      <c r="D119">
+        <v>17036917</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C119">
-        <v>17022320</v>
-      </c>
-      <c r="D119">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+      <c r="C120">
+        <v>17021146</v>
+      </c>
+      <c r="D120">
+        <v>17021146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C120">
-        <v>17036917</v>
-      </c>
-      <c r="D120">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+      <c r="C121">
+        <v>17018390</v>
+      </c>
+      <c r="D121">
+        <v>17018390</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C121">
-        <v>17021146</v>
-      </c>
-      <c r="D121">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+      <c r="C122">
+        <v>17020581</v>
+      </c>
+      <c r="D122">
+        <v>17020581</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C122">
-        <v>17018390</v>
-      </c>
-      <c r="D122">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+      <c r="C123">
+        <v>17022312</v>
+      </c>
+      <c r="D123">
+        <v>17022312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C123">
-        <v>17020581</v>
-      </c>
-      <c r="D123">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+      <c r="C124">
+        <v>17021774</v>
+      </c>
+      <c r="D124">
+        <v>17021774</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C124">
-        <v>17022312</v>
-      </c>
-      <c r="D124">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+      <c r="C125">
+        <v>17022339</v>
+      </c>
+      <c r="D125">
+        <v>17022339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C125">
-        <v>17021774</v>
-      </c>
-      <c r="D125">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+      <c r="C126">
+        <v>17040035</v>
+      </c>
+      <c r="D126">
+        <v>17040035</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C126">
-        <v>17022339</v>
-      </c>
-      <c r="D126">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+      <c r="C127">
+        <v>17022860</v>
+      </c>
+      <c r="D127">
+        <v>17022860</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C127">
-        <v>17040035</v>
-      </c>
-      <c r="D127">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="C128">
+        <v>17020611</v>
+      </c>
+      <c r="D128">
+        <v>17020611</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C128">
-        <v>17022860</v>
-      </c>
-      <c r="D128">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+      <c r="C129">
+        <v>17021588</v>
+      </c>
+      <c r="D129">
+        <v>17021588</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C129">
-        <v>17020611</v>
-      </c>
-      <c r="D129">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+      <c r="C130">
+        <v>17038359</v>
+      </c>
+      <c r="D130">
+        <v>17038359</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C130">
-        <v>17021588</v>
-      </c>
-      <c r="D130">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+      <c r="C131">
+        <v>17018404</v>
+      </c>
+      <c r="D131">
+        <v>17018404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C131">
-        <v>17038359</v>
-      </c>
-      <c r="D131">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+      <c r="C132">
+        <v>17021731</v>
+      </c>
+      <c r="D132">
+        <v>17021731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C132">
-        <v>17018404</v>
-      </c>
-      <c r="D132">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+      <c r="C133">
+        <v>17020360</v>
+      </c>
+      <c r="D133">
+        <v>17020360</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C134">
+        <v>17040841</v>
+      </c>
+      <c r="D134">
+        <v>17040841</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C133">
-        <v>17021731</v>
-      </c>
-      <c r="D133">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+      <c r="C135">
+        <v>17020158</v>
+      </c>
+      <c r="D135">
+        <v>17020158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C134">
-        <v>17020360</v>
-      </c>
-      <c r="D134">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C135">
-        <v>17040841</v>
-      </c>
-      <c r="D135">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+      <c r="C136">
+        <v>17053315</v>
+      </c>
+      <c r="D136">
+        <v>17053315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C136">
-        <v>17020158</v>
-      </c>
-      <c r="D136">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+      <c r="C137">
+        <v>17021600</v>
+      </c>
+      <c r="D137">
+        <v>17021600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C137">
-        <v>17053315</v>
-      </c>
-      <c r="D137">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+      <c r="C138">
+        <v>17017203</v>
+      </c>
+      <c r="D138">
+        <v>17017203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C138">
-        <v>17021600</v>
-      </c>
-      <c r="D138">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="C139">
+        <v>17021707</v>
+      </c>
+      <c r="D139">
+        <v>17021707</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C139">
-        <v>17017203</v>
-      </c>
-      <c r="D139">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+      <c r="C140">
+        <v>17021804</v>
+      </c>
+      <c r="D140">
+        <v>17021804</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C140">
-        <v>17021707</v>
-      </c>
-      <c r="D140">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+      <c r="C141">
+        <v>17106800</v>
+      </c>
+      <c r="D141">
+        <v>17106800</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C141">
-        <v>17021804</v>
-      </c>
-      <c r="D141">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+      <c r="C142">
+        <v>17050278</v>
+      </c>
+      <c r="D142">
+        <v>17050278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C142">
-        <v>17106800</v>
-      </c>
-      <c r="D142">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+      <c r="C143">
+        <v>17043069</v>
+      </c>
+      <c r="D143">
+        <v>17043069</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C143">
-        <v>17050278</v>
-      </c>
-      <c r="D143">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+      <c r="C144">
+        <v>17018820</v>
+      </c>
+      <c r="D144">
+        <v>17018820</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C144">
-        <v>17043069</v>
-      </c>
-      <c r="D144">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+      <c r="C145">
+        <v>17043026</v>
+      </c>
+      <c r="D145">
+        <v>17043026</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C145">
-        <v>17018820</v>
-      </c>
-      <c r="D145">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+      <c r="C146">
+        <v>17039150</v>
+      </c>
+      <c r="D146">
+        <v>17039150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C146">
-        <v>17043026</v>
-      </c>
-      <c r="D146">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+      <c r="C147">
+        <v>17052823</v>
+      </c>
+      <c r="D147">
+        <v>17052823</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C147">
-        <v>17039150</v>
-      </c>
-      <c r="D147">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+      <c r="C148">
+        <v>17051746</v>
+      </c>
+      <c r="D148">
+        <v>17051746</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C148">
-        <v>17052823</v>
-      </c>
-      <c r="D148">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+      <c r="C149">
+        <v>17049253</v>
+      </c>
+      <c r="D149">
+        <v>17049253</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C149">
-        <v>17051746</v>
-      </c>
-      <c r="D149">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C150">
-        <v>17049253</v>
+        <v>17107806</v>
       </c>
       <c r="D150">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C151">
         <v>17107806</v>
-      </c>
-      <c r="D151">
-        <v>123456</v>
       </c>
     </row>
   </sheetData>
